--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3380897.377779642</v>
+        <v>3485077.012230714</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283178</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7888084.313078334</v>
+        <v>7888084.313078335</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>59.32996291532975</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>274.9721579853087</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>141.7313422639045</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -829,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>64.82019709657247</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -877,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>284.4419912433845</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -950,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>129.471426936784</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>54.76965594209526</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1066,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1102,25 +1104,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>207.5559474752829</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,13 +1144,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>99.4189438346792</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>56.54941082145703</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>137.0872572463026</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,13 +1341,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>101.7697538497677</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,10 +1356,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>114.2821160880066</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>41.74133133758758</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1607,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1780,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>27.6842674365317</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>7.408064079031337</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2005,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>47.49734780285714</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,16 +2058,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>83.53432244437066</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2248,7 +2250,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>71.56327578339665</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2287,7 +2289,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2299,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>107.1685137621102</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2479,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>9.146142788179368</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,16 +2535,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>117.4665281367395</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2609,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2716,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2725,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>60.64713141731118</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>14.92158678358339</v>
       </c>
     </row>
     <row r="29">
@@ -2855,10 +2857,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="30">
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>41.33703994142957</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2956,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>49.48749137895467</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3007,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3026,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695518</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986277</v>
+        <v>40.53421095546921</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>1.799772605719095</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856542</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012157</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710082</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695518</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462238</v>
+        <v>139.7072979240948</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012157</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>123.7971820797048</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.5229983365909</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695518</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465691</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>107.317805417867</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012157</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>179.249966940809</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3752,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695518</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3895,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>99.97427419834096</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>46.86766651429448</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012157</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4025,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4043,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4135,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>110.0177171766856</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4195,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>36.2249434387023</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2047.583838282732</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4361,19 +4363,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>3155.385897666236</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V2" t="n">
-        <v>2824.323010322666</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W2" t="n">
-        <v>2824.323010322666</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X2" t="n">
-        <v>2824.323010322666</v>
+        <v>2331.266366609373</v>
       </c>
       <c r="Y2" t="n">
-        <v>2434.183678346854</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
@@ -4410,10 +4412,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158133</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4425,31 +4427,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
         <v>1109.759191501176</v>
@@ -4462,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>504.4781294962288</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1861.819601526298</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1670.133717353125</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1670.133717353125</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1381.030850478768</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1381.030850478768</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W4" t="n">
-        <v>1091.613680441807</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="X4" t="n">
-        <v>1091.613680441807</v>
+        <v>906.9191734699987</v>
       </c>
       <c r="Y4" t="n">
-        <v>1091.613680441807</v>
+        <v>686.1265943264685</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1501.213961756484</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4562,31 +4564,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4598,19 +4600,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2862.546497866152</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X5" t="n">
-        <v>2862.546497866152</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>1887.813801820606</v>
       </c>
     </row>
     <row r="6">
@@ -4635,22 +4637,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>794.6070935315613</v>
+        <v>630.8037095364738</v>
       </c>
       <c r="C7" t="n">
-        <v>625.6709106036544</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="D7" t="n">
-        <v>625.6709106036544</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4750,25 +4752,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1548.361223971664</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1293.676735765777</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W7" t="n">
-        <v>1004.259565728817</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="X7" t="n">
-        <v>794.6070935315613</v>
+        <v>906.9191734699991</v>
       </c>
       <c r="Y7" t="n">
-        <v>794.6070935315613</v>
+        <v>686.126594326469</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2034.604709474942</v>
+        <v>1285.591601078695</v>
       </c>
       <c r="C8" t="n">
-        <v>1665.642192534531</v>
+        <v>916.6290841382836</v>
       </c>
       <c r="D8" t="n">
-        <v>1307.37649392778</v>
+        <v>558.3633855315331</v>
       </c>
       <c r="E8" t="n">
-        <v>921.588241329536</v>
+        <v>172.5751329332889</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>165.6296321840854</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,22 +4804,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4829,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2788.565186649823</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450754</v>
+        <v>2435.796531379709</v>
       </c>
       <c r="X8" t="n">
-        <v>2424.744041450754</v>
+        <v>2062.330773118629</v>
       </c>
       <c r="Y8" t="n">
-        <v>2034.604709474942</v>
+        <v>1672.191441142817</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>679.6952191369614</v>
+        <v>471.2459535582122</v>
       </c>
       <c r="C10" t="n">
-        <v>510.7590362090546</v>
+        <v>302.3097706303054</v>
       </c>
       <c r="D10" t="n">
-        <v>360.6423967967188</v>
+        <v>302.3097706303054</v>
       </c>
       <c r="E10" t="n">
-        <v>212.7293032143257</v>
+        <v>302.3097706303054</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143257</v>
+        <v>302.3097706303054</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4987,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1734.666359684639</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1512.899744254165</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1223.796877379809</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V10" t="n">
-        <v>969.1123891739221</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="W10" t="n">
-        <v>679.6952191369614</v>
+        <v>1101.676548429999</v>
       </c>
       <c r="X10" t="n">
-        <v>679.6952191369614</v>
+        <v>873.6869975319821</v>
       </c>
       <c r="Y10" t="n">
-        <v>679.6952191369614</v>
+        <v>652.894418388452</v>
       </c>
     </row>
     <row r="11">
@@ -5030,37 +5032,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5069,7 +5071,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5118,28 +5120,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876693</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C13" t="n">
-        <v>580.8993044876693</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D13" t="n">
-        <v>430.7826650753335</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
-        <v>282.8695714929404</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>135.97962399503</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
         <v>93.81666304797187</v>
@@ -5197,52 +5199,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5267,31 +5269,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5355,28 +5357,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021785</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756785</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O15" t="n">
-        <v>2020.349486996072</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P15" t="n">
-        <v>2443.97263649114</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C16" t="n">
-        <v>847.644273983533</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.70136564882</v>
+        <v>1405.737459147272</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.711814750802</v>
+        <v>1177.747908249255</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>956.9553291057244</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5549,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>3210.485548300425</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>3807.864035926977</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>4435.461999481584</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>996.5276398439756</v>
+        <v>718.5507239167111</v>
       </c>
       <c r="C19" t="n">
-        <v>827.5914569160688</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5704,19 +5706,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1893.082977031346</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854706</v>
+        <v>1638.398488825459</v>
       </c>
       <c r="W19" t="n">
-        <v>1398.968683817745</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X19" t="n">
-        <v>1398.968683817745</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y19" t="n">
-        <v>1178.176104674215</v>
+        <v>900.1991887469509</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5740,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5829,25 +5831,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O21" t="n">
-        <v>2222.001901828445</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1024.063349920562</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>855.1271669926552</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>705.0105275803195</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>557.0974339979264</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
         <v>484.8112968429803</v>
@@ -5935,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.701365648819</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.711814750802</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y22" t="n">
-        <v>1205.711814750802</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5984,10 +5986,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075811</v>
@@ -6005,7 +6007,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C24" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D24" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>3210.485548300425</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021785</v>
+        <v>3807.864035926977</v>
       </c>
       <c r="N24" t="n">
-        <v>1468.439756756785</v>
+        <v>4435.461999481584</v>
       </c>
       <c r="O24" t="n">
-        <v>2020.349486996072</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="P24" t="n">
-        <v>2443.97263649114</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R24" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S24" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T24" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U24" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V24" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W24" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X24" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y24" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597619</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>411.9631215597619</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6212,34 +6214,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,16 +6259,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6303,22 +6305,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
-        <v>1468.439756756785</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2020.349486996072</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327643</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048574</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D28" t="n">
-        <v>444.7013164925216</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E28" t="n">
-        <v>296.7882229101285</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>296.7882229101285</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6406,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.402603663004</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="29">
@@ -6455,10 +6457,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6467,13 +6469,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,28 +6484,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6655,16 +6657,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="32">
@@ -6680,19 +6682,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192599</v>
@@ -6701,7 +6703,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6719,31 +6721,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M33" t="n">
-        <v>738.7889117913853</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N33" t="n">
-        <v>1366.386875345992</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400738</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121671</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121671</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121671</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121671</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270471</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000581</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648821</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611861</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138435</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703134</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6920,19 +6922,19 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -7011,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188004</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908937</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908937</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908937</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908937</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057737</v>
+        <v>317.0218491516692</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166295</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189236</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533434</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327548</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290587</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925701</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.30924124904</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="38">
@@ -7154,25 +7156,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7187,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7217,7 +7219,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
         <v>2319.799627685893</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>560.7825789706072</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C40" t="n">
-        <v>391.8463960427005</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D40" t="n">
-        <v>241.7297566303649</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797187</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>426.0170212122713</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648821</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611861</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>963.2236229443769</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y40" t="n">
-        <v>742.4310438008469</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7448,10 +7450,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0291294438176</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400738</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121671</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8007783998314</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797187</v>
+        <v>282.8695714929399</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487569</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.46108051051</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854708</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648821</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611861</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138435</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703134</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7628,19 +7630,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7652,22 +7654,22 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7728,25 +7730,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M45" t="n">
-        <v>1344.266747951538</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400712</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D46" t="n">
-        <v>513.8536007400712</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E46" t="n">
-        <v>513.8536007400712</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F46" t="n">
         <v>402.7245934908939</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>123.7828069546813</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>258.8387309000593</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>211.1765892730635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>101.1181252153552</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,16 +23946,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>202.6501519448735</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24136,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>73.8577722395346</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>179.3544845744808</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>136.2749052347519</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>108.2431272522977</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24604,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>104.8770068749577</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>203.6630665685114</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,10 +24846,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>96.9464712676145</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25075,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>138.4949402405047</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>0.587414922129085</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856542</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>57.22910392193964</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922687</v>
+        <v>58.20633287440187</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462238</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856542</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>46.45968844822806</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>46.45968844822809</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229311</v>
+        <v>98.55338150863676</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462238</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856542</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26023,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>35.40333084624569</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>250.2980548978887</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>679314.7119745261</v>
+        <v>679314.7119745259</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>679314.7119745261</v>
+        <v>679314.7119745259</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>679314.7119745259</v>
+        <v>679314.7119745261</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>679314.7119745261</v>
+        <v>679314.7119745259</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>679314.7119745261</v>
+        <v>679314.7119745259</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>679314.7119745261</v>
+        <v>679314.7119745259</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>679314.7119745259</v>
+        <v>679314.7119745261</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244626</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="F2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="G2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="H2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="I2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="J2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="K2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="L2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="N2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="O2" t="n">
         <v>746610.6047132555</v>
       </c>
-      <c r="J2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="K2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="L2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>746610.6047132553</v>
-      </c>
-      <c r="N2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="O2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="P2" t="n">
-        <v>746610.6047132552</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820632</v>
+        <v>93403.78684820639</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820635</v>
+        <v>93403.78684820633</v>
       </c>
       <c r="D4" t="n">
         <v>93403.78684820631</v>
@@ -26442,22 +26444,22 @@
         <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
+        <v>14216.75207685511</v>
+      </c>
+      <c r="L4" t="n">
         <v>14216.75207685505</v>
       </c>
-      <c r="L4" t="n">
-        <v>14216.75207685516</v>
-      </c>
       <c r="M4" t="n">
-        <v>14216.75207685515</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="N4" t="n">
-        <v>14216.75207685514</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="O4" t="n">
-        <v>14216.75207685514</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="P4" t="n">
-        <v>14216.7520768551</v>
+        <v>14216.75207685505</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-770618.8360127298</v>
+        <v>-770618.8360127296</v>
       </c>
       <c r="C6" t="n">
-        <v>558125.9097148628</v>
+        <v>558125.9097148627</v>
       </c>
       <c r="D6" t="n">
-        <v>558125.9097148628</v>
+        <v>558125.9097148631</v>
       </c>
       <c r="E6" t="n">
-        <v>305858.8610051381</v>
+        <v>305858.861005138</v>
       </c>
       <c r="F6" t="n">
+        <v>631271.3228124932</v>
+      </c>
+      <c r="G6" t="n">
+        <v>631271.3228124932</v>
+      </c>
+      <c r="H6" t="n">
         <v>631271.3228124931</v>
       </c>
-      <c r="G6" t="n">
-        <v>631271.3228124933</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
+        <v>631271.3228124931</v>
+      </c>
+      <c r="J6" t="n">
+        <v>413740.1204152156</v>
+      </c>
+      <c r="K6" t="n">
         <v>631271.3228124932</v>
-      </c>
-      <c r="I6" t="n">
-        <v>631271.3228124934</v>
-      </c>
-      <c r="J6" t="n">
-        <v>413740.1204152158</v>
-      </c>
-      <c r="K6" t="n">
-        <v>631271.3228124931</v>
       </c>
       <c r="L6" t="n">
         <v>631271.3228124932</v>
       </c>
       <c r="M6" t="n">
-        <v>546216.2948769812</v>
+        <v>546216.2948769813</v>
       </c>
       <c r="N6" t="n">
-        <v>631271.3228124931</v>
+        <v>631271.322812493</v>
       </c>
       <c r="O6" t="n">
-        <v>631271.3228124931</v>
+        <v>631271.3228124934</v>
       </c>
       <c r="P6" t="n">
-        <v>631271.3228124931</v>
+        <v>631271.3228124932</v>
       </c>
     </row>
   </sheetData>
@@ -26787,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="C4" t="n">
-        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26960,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27391,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>191.6652090435722</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>94.75894269316035</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>25.51547883472335</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>24.11195557347486</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>80.83090052762304</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27670,10 +27672,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>256.7665117192696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>125.062324239842</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,10 +27788,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,25 +27824,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>18.1537079137542</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,13 +27864,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>307.4571019070322</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>354.3723148319964</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>28.93855101272561</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,13 +28061,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>87.99927148167419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29578,7 +29580,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="30">
@@ -31039,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31610,7 +31612,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
         <v>609.6478166837925</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>405.637736314577</v>
+        <v>151.9914336104081</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>250.1723312270667</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32254,7 +32256,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32321,22 +32323,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565753</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32467,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32482,7 +32484,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
         <v>926.5868626460027</v>
@@ -32549,7 +32551,7 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32561,16 +32563,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>195.7502366106279</v>
+        <v>506.0735392239789</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32789,10 +32791,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,16 +32803,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>164.9290651940682</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>213.1625787491746</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32941,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33023,13 +33025,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>217.8799919951683</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33041,7 +33043,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>399.4395445221152</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33260,7 +33262,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33269,19 +33271,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>709.4760096096878</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33494,34 +33496,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>167.4835451665588</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>640.7275049411307</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33679,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33731,22 +33733,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>583.1096135868578</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>602.4605829984181</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33755,7 +33757,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33913,7 +33915,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33968,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33977,19 +33979,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>281.0363767960755</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>156.3072281639545</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
@@ -34126,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34135,7 +34137,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M41" t="n">
         <v>965.6463440175675</v>
@@ -34205,28 +34207,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>579.5299594447137</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>679.7882761221643</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34448,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M45" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34469,7 +34471,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35258,7 +35260,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
         <v>478.3061046004592</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312436</v>
+        <v>20.64972152707474</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.1905571410452</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35902,7 +35904,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35969,22 +35971,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121309</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36130,7 +36132,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36209,16 +36211,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>61.77582919629761</v>
+        <v>372.0991318096486</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36437,10 +36439,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36451,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>22.33282074962379</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>73.18080466315305</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36671,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36689,7 +36691,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>265.4651371077849</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36917,19 +36919,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>578.1342975263545</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>25.34951124454049</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>498.1312604966863</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37327,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>440.9755796648395</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37403,7 +37405,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37561,7 +37563,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,19 +37627,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>138.9023428740572</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>22.33282074962425</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37783,7 +37785,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37853,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>440.9755796648395</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>548.4465640388311</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38096,19 +38098,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M45" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
@@ -38117,7 +38119,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3485077.012230714</v>
+        <v>3481064.402216719</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7888084.313078335</v>
+        <v>7888084.313078334</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>303.0256179619643</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -712,10 +712,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>274.9721579853087</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -819,10 +819,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>141.7313422639045</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>71.98153210089556</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -898,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>284.4419912433845</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>168.1158122680967</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>54.76965594209526</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1065,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1144,13 +1144,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>56.54941082145703</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>177.2979137777573</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1186,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1296,22 +1296,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>137.0872572463026</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>68.8500543646698</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444152</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>114.2821160880066</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>57.24347904696366</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>83.06560892428298</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>27.6842674365317</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2007,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>83.53432244437066</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>246.8141177896371</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2247,10 +2247,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>41.55695577161193</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2301,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>107.1685137621102</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>5.890337106877586</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>117.4665281367395</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2715,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>14.92158678358339</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>49.48749137895467</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3189,13 +3189,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>40.53421095546921</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>243.2577348836412</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>139.7072979240948</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>107.317805417867</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3900,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>46.86766651429448</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>36.2249434387023</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1941.127034633561</v>
+        <v>1896.503151925172</v>
       </c>
       <c r="C2" t="n">
-        <v>1572.164517693149</v>
+        <v>1896.503151925172</v>
       </c>
       <c r="D2" t="n">
-        <v>1213.898819086399</v>
+        <v>1538.237453318421</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881545</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4330,10 +4330,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4342,10 +4342,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296685</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410102</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V2" t="n">
-        <v>2961.784676410102</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W2" t="n">
-        <v>2609.016021139988</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="X2" t="n">
-        <v>2331.266366609373</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y2" t="n">
-        <v>1941.127034633561</v>
+        <v>2283.102991989294</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811075</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999805</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387292</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332737</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601587</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927768</v>
+        <v>936.5735814686076</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064433</v>
+        <v>846.0716871064751</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.064395508013</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986303</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199864</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>504.4781294962288</v>
+        <v>2078.679253373407</v>
       </c>
       <c r="C4" t="n">
-        <v>361.3151575124869</v>
+        <v>1909.743070445501</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124869</v>
+        <v>1759.626431033165</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>1611.713337450772</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>3036.502954734814</v>
       </c>
       <c r="V4" t="n">
-        <v>1134.908724368016</v>
+        <v>2781.818466528927</v>
       </c>
       <c r="W4" t="n">
-        <v>1134.908724368016</v>
+        <v>2709.109848245194</v>
       </c>
       <c r="X4" t="n">
-        <v>906.9191734699987</v>
+        <v>2481.120297347177</v>
       </c>
       <c r="Y4" t="n">
-        <v>686.1265943264685</v>
+        <v>2260.327718203647</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1501.213961756484</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C5" t="n">
-        <v>1213.898819086399</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D5" t="n">
-        <v>1213.898819086399</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796418</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X5" t="n">
-        <v>2277.953133796418</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y5" t="n">
-        <v>1887.813801820606</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="6">
@@ -4640,13 +4640,13 @@
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>630.8037095364738</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>461.8675266085669</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>311.7508871962312</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1134.908724368016</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>1134.908724368016</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>906.9191734699991</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>686.126594326469</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1285.591601078695</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C8" t="n">
-        <v>916.6290841382836</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D8" t="n">
-        <v>558.3633855315331</v>
+        <v>1095.40402049088</v>
       </c>
       <c r="E8" t="n">
-        <v>172.5751329332889</v>
+        <v>709.6157678926361</v>
       </c>
       <c r="F8" t="n">
-        <v>165.6296321840854</v>
+        <v>298.6298631030285</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>287.5978169884291</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V8" t="n">
-        <v>2788.565186649823</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W8" t="n">
-        <v>2435.796531379709</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X8" t="n">
-        <v>2062.330773118629</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y8" t="n">
-        <v>1672.191441142817</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>471.2459535582122</v>
+        <v>917.616325937273</v>
       </c>
       <c r="C10" t="n">
-        <v>302.3097706303054</v>
+        <v>748.6801430093661</v>
       </c>
       <c r="D10" t="n">
-        <v>302.3097706303054</v>
+        <v>598.5635035970304</v>
       </c>
       <c r="E10" t="n">
-        <v>302.3097706303054</v>
+        <v>450.6504100146373</v>
       </c>
       <c r="F10" t="n">
-        <v>302.3097706303054</v>
+        <v>303.7604625167269</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>136.0576258914458</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4989,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U10" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V10" t="n">
-        <v>1391.09371846696</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="W10" t="n">
-        <v>1101.676548429999</v>
+        <v>1548.04692080906</v>
       </c>
       <c r="X10" t="n">
-        <v>873.6869975319821</v>
+        <v>1320.057369911043</v>
       </c>
       <c r="Y10" t="n">
-        <v>652.894418388452</v>
+        <v>1099.264790767513</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362701</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5059,34 +5059,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.0655846733346</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C13" t="n">
-        <v>411.1294017454277</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>261.0127623330919</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,40 +5290,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468476</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962607</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589159</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143766</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C16" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270456</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1405.737459147272</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X16" t="n">
-        <v>1177.747908249255</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y16" t="n">
-        <v>956.9553291057244</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="17">
@@ -5497,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,7 +5512,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5530,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>3210.485548300425</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>3807.864035926977</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>4435.461999481584</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>718.5507239167111</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C19" t="n">
-        <v>549.6145409888043</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D19" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1893.082977031346</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1638.398488825459</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1348.981318788498</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X19" t="n">
-        <v>1120.991767890481</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y19" t="n">
-        <v>900.1991887469509</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="20">
@@ -5749,7 +5749,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.192580311172</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2404.986360578632</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>2185.384895601574</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W22" t="n">
-        <v>1508.305175991783</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X22" t="n">
-        <v>1280.315625093766</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="23">
@@ -5980,34 +5980,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>3210.485548300425</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>3807.864035926977</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>4435.461999481584</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6177,22 +6177,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854706</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W25" t="n">
-        <v>1398.968683817745</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X25" t="n">
-        <v>1280.315625093766</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="26">
@@ -6217,7 +6217,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6259,16 +6259,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6305,28 +6305,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>506.2737913123336</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1103.652278938886</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>719.5738700011939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>550.637687073287</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>550.637687073287</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6429,7 +6429,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>901.2223348314336</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,13 +6460,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6508,7 +6508,7 @@
         <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2092.798483612594</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>768.5380889459582</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>599.6019060180513</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>599.6019060180513</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
         <v>402.7245934908938</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1688.385853854706</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1398.968683817745</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1170.979132919728</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>950.1865537761979</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6688,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6739,10 +6739,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C34" t="n">
-        <v>472.9099533103043</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D34" t="n">
-        <v>322.7933138979686</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>322.7933138979686</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6897,13 +6897,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1187.986481927969</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>959.9969310299521</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>739.2043518864219</v>
       </c>
     </row>
     <row r="35">
@@ -6925,10 +6925,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6976,10 +6976,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7025,19 +7025,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.2707707770319</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>634.334587849125</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>484.2179484367892</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>484.2179484367892</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.2179484367892</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.0218491516692</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7134,13 +7134,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7259,19 +7259,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>741.8431516380886</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>572.9069687101817</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>572.9069687101817</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>572.9069687101817</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>426.0170212122713</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7374,10 +7374,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7490,28 +7490,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>580.8993044876688</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>430.7826650753331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>282.8695714929399</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
         <v>402.7245934908939</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1647.011051783227</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1419.02150088521</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>110.0033420516642</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194088</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>258.8387309000593</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>202.6501519448735</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>39.70888054695388</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24135,10 +24135,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>139.4693302300327</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>179.3544845744808</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,22 +24417,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>211.5151132204107</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>108.2431272522977</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>117.6820817884491</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>203.6630665685114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24846,10 +24846,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>96.9464712676145</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25077,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>126.7126101431586</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>43.26526345294982</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.587414922129085</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>58.20633287440187</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25788,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>98.55338150863676</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>250.2980548978887</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>679314.7119745259</v>
+        <v>679314.7119745261</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>679314.7119745259</v>
+        <v>679314.7119745262</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>679314.7119745259</v>
+        <v>679314.7119745261</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>679314.7119745261</v>
+        <v>679314.7119745259</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>679314.7119745261</v>
+        <v>679314.7119745259</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>679314.7119745261</v>
+        <v>679314.7119745259</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>679314.7119745261</v>
+        <v>679314.7119745259</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244626</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244626</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="E2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="F2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="G2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="H2" t="n">
         <v>746610.6047132552</v>
@@ -26337,25 +26337,25 @@
         <v>746610.6047132552</v>
       </c>
       <c r="J2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="K2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>746610.6047132554</v>
       </c>
-      <c r="L2" t="n">
-        <v>746610.6047132553</v>
-      </c>
       <c r="M2" t="n">
+        <v>746610.604713255</v>
+      </c>
+      <c r="N2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="N2" t="n">
-        <v>746610.6047132551</v>
-      </c>
       <c r="O2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.594527697714511e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551199</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820639</v>
+        <v>93403.78684820636</v>
       </c>
       <c r="C4" t="n">
         <v>93403.78684820633</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820631</v>
+        <v>93403.78684820636</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685499</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685499</v>
       </c>
       <c r="G4" t="n">
         <v>14216.75207685505</v>
@@ -26481,7 +26481,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-770618.8360127296</v>
+        <v>-770618.8360127294</v>
       </c>
       <c r="C6" t="n">
+        <v>558125.9097148624</v>
+      </c>
+      <c r="D6" t="n">
         <v>558125.9097148627</v>
       </c>
-      <c r="D6" t="n">
-        <v>558125.9097148631</v>
-      </c>
       <c r="E6" t="n">
-        <v>305858.861005138</v>
+        <v>305511.4817507807</v>
       </c>
       <c r="F6" t="n">
-        <v>631271.3228124932</v>
+        <v>630923.9435581357</v>
       </c>
       <c r="G6" t="n">
-        <v>631271.3228124932</v>
+        <v>630923.9435581372</v>
       </c>
       <c r="H6" t="n">
-        <v>631271.3228124931</v>
+        <v>630923.9435581361</v>
       </c>
       <c r="I6" t="n">
-        <v>631271.3228124931</v>
+        <v>630923.9435581361</v>
       </c>
       <c r="J6" t="n">
-        <v>413740.1204152156</v>
+        <v>413392.7411608588</v>
       </c>
       <c r="K6" t="n">
-        <v>631271.3228124932</v>
+        <v>630923.943558136</v>
       </c>
       <c r="L6" t="n">
-        <v>631271.3228124932</v>
+        <v>630923.9435581364</v>
       </c>
       <c r="M6" t="n">
-        <v>546216.2948769813</v>
+        <v>545868.9156226239</v>
       </c>
       <c r="N6" t="n">
-        <v>631271.322812493</v>
+        <v>630923.9435581361</v>
       </c>
       <c r="O6" t="n">
-        <v>631271.3228124934</v>
+        <v>630923.9435581364</v>
       </c>
       <c r="P6" t="n">
-        <v>631271.3228124932</v>
+        <v>630923.9435581361</v>
       </c>
     </row>
   </sheetData>
@@ -26792,16 +26792,16 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>78.90475211029752</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>94.75894269316035</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,10 +27539,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>25.51547883472335</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>214.5414662356955</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>80.83090052762304</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>181.1251564493163</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>125.062324239842</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27864,13 +27864,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>354.3723148319964</v>
-      </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>117.3098506095632</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28016,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>28.93855101272561</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>75.90496054965098</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28070,7 +28070,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-1.164270215632821e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28341,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -29526,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29580,7 +29580,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -31612,7 +31612,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
         <v>609.6478166837925</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>151.9914336104081</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565744</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>291.8940795642898</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32256,7 +32256,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32320,7 +32320,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565753</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32469,10 +32469,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K20" t="n">
         <v>699.5441750817575</v>
@@ -32548,10 +32548,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32566,16 +32566,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>506.0735392239789</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,13 +32803,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>164.9290651940682</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33025,13 +33025,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>217.8799919951683</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,16 +33040,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,10 +33259,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33274,19 +33274,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>709.4760096096878</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33496,10 +33496,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33508,16 +33508,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>167.4835451665588</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33745,22 +33745,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>602.4605829984181</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33915,7 +33915,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33979,22 +33979,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>281.0363767960755</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34137,7 +34137,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
         <v>965.6463440175675</v>
@@ -34210,10 +34210,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34222,19 +34222,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>679.7882761221643</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,16 +34444,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>533.6019216797995</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,16 +34462,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35260,7 +35260,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
         <v>478.3061046004592</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>20.64972152707474</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.95065951213</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>151.9123054782682</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35904,7 +35904,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,7 +35968,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121309</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36117,10 +36117,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36214,16 +36214,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>372.0991318096486</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,13 +36451,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>22.33282074962379</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>79.32561221529411</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,16 +36688,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36922,19 +36922,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>578.1342975263545</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37156,16 +37156,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>25.34951124454049</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37393,22 +37393,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>471.1188709150848</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37563,7 +37563,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37627,22 +37627,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>138.9023428740572</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37785,7 +37785,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37858,10 +37858,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37870,19 +37870,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>548.4465640388311</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>395.0475418999253</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,16 +38110,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3481064.402216719</v>
+        <v>3482824.932519506</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7888084.313078334</v>
+        <v>7888084.313078333</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>303.0256179619643</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>129.4714269367835</v>
       </c>
     </row>
     <row r="3">
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>71.98153210089556</v>
+        <v>71.54885458150964</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,10 +904,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>254.026933296287</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>168.1158122680967</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>157.7822070347172</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471489</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1150,7 +1150,7 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>177.2979137777573</v>
+        <v>68.11015198958169</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1308,10 +1308,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>68.8500543646698</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444152</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457617</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>57.24347904696366</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>69.8286381302724</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187879</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7122866515516</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428298</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>246.8141177896371</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
-        <v>41.55695577161193</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2481,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>5.890337106877586</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2715,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3195,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>243.2577348836412</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>51.3656974031032</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4185,10 +4185,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1896.503151925172</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1896.503151925172</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1538.237453318421</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4330,10 +4330,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4342,10 +4342,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296685</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W2" t="n">
-        <v>2656.568750250373</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X2" t="n">
-        <v>2283.102991989294</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="Y2" t="n">
-        <v>2283.102991989294</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2078.679253373407</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>1909.743070445501</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>1759.626431033165</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>1611.713337450772</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>1464.823389952861</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399797</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.605821609171</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>3325.605821609171</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>3325.605821609171</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U4" t="n">
-        <v>3036.502954734814</v>
+        <v>1356.67533979849</v>
       </c>
       <c r="V4" t="n">
-        <v>2781.818466528927</v>
+        <v>1101.990851592603</v>
       </c>
       <c r="W4" t="n">
-        <v>2709.109848245194</v>
+        <v>1029.71928130825</v>
       </c>
       <c r="X4" t="n">
-        <v>2481.120297347177</v>
+        <v>1029.71928130825</v>
       </c>
       <c r="Y4" t="n">
-        <v>2260.327718203647</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2005.586939522201</v>
+        <v>1514.348043559525</v>
       </c>
       <c r="C5" t="n">
-        <v>1636.624422581789</v>
+        <v>1145.385526619114</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.358723975039</v>
+        <v>787.1198280123631</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4594,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>3325.605821609171</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>3155.791869823214</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2782.326111562134</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y5" t="n">
-        <v>2392.186779586323</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="6">
@@ -4643,16 +4643,16 @@
         <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V7" t="n">
-        <v>1767.918581386758</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="W7" t="n">
-        <v>1478.501411349798</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X7" t="n">
-        <v>1250.51186045178</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.71928130825</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="8">
@@ -4780,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1822.632236038042</v>
+        <v>1712.341567565138</v>
       </c>
       <c r="C8" t="n">
-        <v>1453.669719097631</v>
+        <v>1343.379050624726</v>
       </c>
       <c r="D8" t="n">
-        <v>1095.40402049088</v>
+        <v>985.1133520179758</v>
       </c>
       <c r="E8" t="n">
-        <v>709.6157678926361</v>
+        <v>599.3250994197315</v>
       </c>
       <c r="F8" t="n">
-        <v>298.6298631030285</v>
+        <v>188.3391946301239</v>
       </c>
       <c r="G8" t="n">
-        <v>287.5978169884291</v>
+        <v>177.3071485155245</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296686</v>
@@ -4828,28 +4828,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2972.837166339056</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X8" t="n">
-        <v>2599.371408077976</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y8" t="n">
-        <v>2209.232076102164</v>
+        <v>2098.94140762926</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>917.616325937273</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C10" t="n">
-        <v>748.6801430093661</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D10" t="n">
-        <v>598.5635035970304</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>450.6504100146373</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>303.7604625167269</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>136.0576258914458</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W10" t="n">
-        <v>1548.04692080906</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X10" t="n">
-        <v>1320.057369911043</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y10" t="n">
-        <v>1099.264790767513</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168629</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362701</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803938</v>
@@ -5175,7 +5175,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327652</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
         <v>705.9324428257312</v>
@@ -5187,64 +5187,64 @@
         <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>261.012762333092</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2376.429105670894</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603202</v>
+        <v>2156.827640693835</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.2863919474</v>
+        <v>1867.752414038033</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741513</v>
+        <v>1613.067925832146</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704552</v>
+        <v>1323.650755795185</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806535</v>
+        <v>1095.661204897168</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.4026036630049</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,40 +5290,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468476</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962607</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589159</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143766</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400726</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121657</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121657</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121657</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121657</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270456</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
         <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487569</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.46108051051</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.28419561186</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138424</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703123</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5497,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5600,13 +5600,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,10 +5734,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>721.7774158311365</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>552.8412329032296</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
         <v>402.7245934908939</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2404.986360578632</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>2185.384895601574</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1896.309668945771</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1641.625180739884</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1352.208010702924</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1124.218459804906</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>903.4258806613763</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5986,16 +5986,16 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
         <v>2206.55866301478</v>
@@ -6010,7 +6010,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>847.6442739835331</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
         <v>402.7245934908939</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2191.112710026075</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>2191.112710026075</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1936.428221820188</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1647.011051783227</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1419.02150088521</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.22892174168</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6217,31 +6217,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6426,10 +6426,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6484,31 +6484,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>557.5558870561822</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1187.986481927969</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>959.9969310299521</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>739.2043518864219</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6925,10 +6925,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="38">
@@ -7162,31 +7162,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7833,7 +7833,7 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
         <v>2035.268256189238</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>110.0033420516642</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>111.1976478713722</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>72.11969353038566</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194088</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>39.70888054695388</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
-        <v>139.4693302300327</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>211.5151132204107</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>117.6820817884491</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25083,16 +25083,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>43.26526345294982</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>679314.7119745262</v>
+        <v>679314.7119745259</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>679314.7119745261</v>
+        <v>679314.7119745259</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>679314.7119745261</v>
+        <v>679314.7119745259</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>679314.7119745261</v>
+        <v>679314.7119745259</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>679314.7119745259</v>
+        <v>679314.7119745262</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>679314.7119745259</v>
+        <v>679314.7119745262</v>
       </c>
     </row>
     <row r="16">
@@ -26316,10 +26316,10 @@
         <v>759463.6371244626</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="E2" t="n">
         <v>746610.6047132553</v>
@@ -26328,31 +26328,31 @@
         <v>746610.6047132552</v>
       </c>
       <c r="G2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="H2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="I2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="J2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="K2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="L2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="M2" t="n">
-        <v>746610.604713255</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="N2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="P2" t="n">
         <v>746610.6047132552</v>
@@ -26368,16 +26368,16 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>3.594527697714511e-10</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551199</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>93403.78684820639</v>
+      </c>
+      <c r="C4" t="n">
         <v>93403.78684820636</v>
       </c>
-      <c r="C4" t="n">
-        <v>93403.78684820633</v>
-      </c>
       <c r="D4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820635</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685499</v>
+        <v>14216.75207685501</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685499</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="G4" t="n">
         <v>14216.75207685505</v>
@@ -26444,7 +26444,7 @@
         <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
-        <v>14216.75207685511</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="L4" t="n">
         <v>14216.75207685505</v>
@@ -26481,7 +26481,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-770618.8360127294</v>
       </c>
       <c r="C6" t="n">
-        <v>558125.9097148624</v>
+        <v>558125.9097148627</v>
       </c>
       <c r="D6" t="n">
-        <v>558125.9097148627</v>
+        <v>558125.9097148626</v>
       </c>
       <c r="E6" t="n">
-        <v>305511.4817507807</v>
+        <v>305824.1230797023</v>
       </c>
       <c r="F6" t="n">
-        <v>630923.9435581357</v>
+        <v>631236.5848870571</v>
       </c>
       <c r="G6" t="n">
-        <v>630923.9435581372</v>
+        <v>631236.5848870577</v>
       </c>
       <c r="H6" t="n">
-        <v>630923.9435581361</v>
+        <v>631236.5848870573</v>
       </c>
       <c r="I6" t="n">
-        <v>630923.9435581361</v>
+        <v>631236.5848870574</v>
       </c>
       <c r="J6" t="n">
-        <v>413392.7411608588</v>
+        <v>413705.3824897802</v>
       </c>
       <c r="K6" t="n">
-        <v>630923.943558136</v>
+        <v>631236.5848870574</v>
       </c>
       <c r="L6" t="n">
-        <v>630923.9435581364</v>
+        <v>631236.5848870574</v>
       </c>
       <c r="M6" t="n">
-        <v>545868.9156226239</v>
+        <v>546181.5569515456</v>
       </c>
       <c r="N6" t="n">
-        <v>630923.9435581361</v>
+        <v>631236.5848870574</v>
       </c>
       <c r="O6" t="n">
-        <v>630923.9435581364</v>
+        <v>631236.5848870575</v>
       </c>
       <c r="P6" t="n">
-        <v>630923.9435581361</v>
+        <v>631236.5848870574</v>
       </c>
     </row>
   </sheetData>
@@ -26795,7 +26795,7 @@
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26962,16 +26962,16 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>78.90475211029752</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>256.7665117192701</v>
       </c>
     </row>
     <row r="3">
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27599,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>214.5414662356955</v>
+        <v>214.9741437550813</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,10 +27624,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>127.9034367759748</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>181.1251564493163</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27833,10 +27833,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>94.3554362891108</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>83.32522828944209</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>117.3098506095632</v>
+        <v>226.4976123977387</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>75.90496054965098</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-1.164270215632821e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-6.526794458855493e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28341,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -29526,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31612,10 +31612,10 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
         <v>557.708647897025</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,16 +31843,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>398.7616643558013</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565744</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,7 +32104,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32162,31 +32162,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
         <v>0.1345549672467222</v>
@@ -32320,7 +32320,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>337.5641188593844</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35260,10 +35260,10 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
         <v>415.1124034525806</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,13 +35494,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>256.1654199113569</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902953</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674334</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>257.95065951213</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35968,7 +35968,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>199.0097390795102</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
